--- a/medicine/Enfance/Médaille_Kate-Greenaway/Médaille_Kate-Greenaway.xlsx
+++ b/medicine/Enfance/Médaille_Kate-Greenaway/Médaille_Kate-Greenaway.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Kate-Greenaway</t>
+          <t>Médaille_Kate-Greenaway</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La médaille Kate-Greenaway (Kate Greenaway Medal) est un prix d'illustration en littérature d'enfance et de jeunesse britannique. Créé en souvenir de l'artiste Kate Greenaway, il est décerné tous les ans depuis 1955, conjointement avec la Carnegie Medal qui récompense les écrivains.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Kate-Greenaway</t>
+          <t>Médaille_Kate-Greenaway</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
